--- a/犊牛数据上传地址 .xlsx
+++ b/犊牛数据上传地址 .xlsx
@@ -4,13 +4,13 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="D1-9389-19-S"/>
     <sheet r:id="rId2" sheetId="2" name="D1-9389-21-S"/>
     <sheet r:id="rId3" sheetId="3" name="D1-9389-22-s"/>
-    <sheet r:id="rId4" sheetId="4" name="D1-9389-23"/>
+    <sheet r:id="rId4" sheetId="4" name="D1-9389-23-S"/>
     <sheet r:id="rId5" sheetId="5" name="D2-9349-19-S"/>
     <sheet r:id="rId6" sheetId="6" name="D2-9349-23"/>
     <sheet r:id="rId7" sheetId="7" name="D3-9348-19-S"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="682">
   <si>
     <t>Video ID</t>
   </si>
@@ -1818,9 +1818,6 @@
     <t>D01_20210522141719.mp4 73648 25.0</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://filetransfer.io/data-package/4WmqpbIX#link</t>
   </si>
   <si>
@@ -2153,13 +2150,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2177,7 +2180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2257,6 +2260,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -2290,13 +2300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFc6c6c6"/>
       </left>
@@ -2315,100 +2318,103 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2724,8 +2730,8 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="26" t="s">
-        <v>651</v>
+      <c r="A1" s="28" t="s">
+        <v>650</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -2733,214 +2739,214 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="14" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="24" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24" t="s">
         <v>659</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
         <v>660</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="24" t="s">
         <v>662</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24" t="s">
         <v>663</v>
       </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24" t="s">
         <v>666</v>
       </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24" t="s">
         <v>667</v>
       </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22" t="s">
+      <c r="C17" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="24" t="s">
         <v>668</v>
       </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22" t="s">
+      <c r="C18" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="24" t="s">
         <v>669</v>
       </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22" t="s">
+      <c r="C19" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="24" t="s">
         <v>671</v>
       </c>
-      <c r="C20" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22" t="s">
+      <c r="C21" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="24" t="s">
         <v>672</v>
       </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="24" t="s">
         <v>673</v>
       </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="24" t="s">
         <v>674</v>
       </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="22" t="s">
+      <c r="C24" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="24" t="s">
         <v>675</v>
       </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="22" t="s">
+      <c r="C25" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="22" t="s">
+      <c r="C26" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="C26" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22" t="s">
+      <c r="C27" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="24" t="s">
         <v>680</v>
       </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22" t="s">
+      <c r="C30" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="24" t="s">
         <v>681</v>
-      </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22" t="s">
-        <v>682</v>
       </c>
       <c r="C31" s="13"/>
     </row>
@@ -2964,13 +2970,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="45.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="45.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2979,8 +2985,8 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="27" t="s">
         <v>362</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -2988,204 +2994,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="27" t="s">
         <v>364</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="27" t="s">
         <v>365</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="27" t="s">
         <v>366</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="27" t="s">
         <v>367</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="27" t="s">
         <v>368</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="27" t="s">
         <v>369</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="27" t="s">
         <v>370</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="27" t="s">
         <v>371</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="27" t="s">
         <v>372</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="27" t="s">
         <v>373</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="27" t="s">
         <v>374</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="27" t="s">
         <v>375</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="27" t="s">
         <v>376</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27" t="s">
         <v>377</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="27" t="s">
         <v>378</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="27" t="s">
         <v>379</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27" t="s">
         <v>380</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27" t="s">
         <v>381</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27" t="s">
         <v>382</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27" t="s">
         <v>383</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27" t="s">
         <v>384</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27" t="s">
         <v>385</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="27" t="s">
         <v>386</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="27" t="s">
         <v>387</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="27" t="s">
         <v>388</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="27" t="s">
         <v>389</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="27" t="s">
         <v>390</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27" t="s">
         <v>391</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27" t="s">
         <v>392</v>
       </c>
       <c r="C31" s="13"/>
@@ -3217,13 +3223,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="45.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="45.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3232,8 +3238,8 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="27" t="s">
         <v>330</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3241,204 +3247,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="27" t="s">
         <v>332</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="27" t="s">
         <v>333</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="27" t="s">
         <v>334</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="27" t="s">
         <v>335</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="27" t="s">
         <v>336</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="27" t="s">
         <v>337</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="27" t="s">
         <v>338</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="27" t="s">
         <v>339</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="27" t="s">
         <v>340</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="27" t="s">
         <v>341</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="27" t="s">
         <v>342</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="27" t="s">
         <v>343</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="27" t="s">
         <v>344</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27" t="s">
         <v>345</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="27" t="s">
         <v>346</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="27" t="s">
         <v>347</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27" t="s">
         <v>348</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27" t="s">
         <v>349</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27" t="s">
         <v>350</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27" t="s">
         <v>351</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27" t="s">
         <v>352</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27" t="s">
         <v>353</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="27" t="s">
         <v>354</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="27" t="s">
         <v>355</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="27" t="s">
         <v>356</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="27" t="s">
         <v>357</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="27" t="s">
         <v>358</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27" t="s">
         <v>359</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27" t="s">
         <v>360</v>
       </c>
       <c r="C31" s="13"/>
@@ -3470,13 +3476,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="46.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3485,8 +3491,8 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="27" t="s">
         <v>298</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -3494,204 +3500,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="27" t="s">
         <v>300</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="27" t="s">
         <v>301</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="27" t="s">
         <v>302</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="27" t="s">
         <v>303</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="27" t="s">
         <v>304</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="27" t="s">
         <v>305</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="27" t="s">
         <v>306</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="27" t="s">
         <v>307</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="27" t="s">
         <v>308</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="27" t="s">
         <v>309</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="27" t="s">
         <v>310</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="27" t="s">
         <v>311</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="27" t="s">
         <v>312</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="27" t="s">
         <v>313</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="27" t="s">
         <v>314</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="27" t="s">
         <v>315</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="27" t="s">
         <v>316</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="27" t="s">
         <v>317</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="27" t="s">
         <v>318</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="27" t="s">
         <v>319</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="27" t="s">
         <v>320</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="27" t="s">
         <v>321</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="27" t="s">
         <v>322</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="27" t="s">
         <v>323</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="27" t="s">
         <v>324</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="27" t="s">
         <v>325</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="27" t="s">
         <v>326</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="27" t="s">
         <v>327</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="27" t="s">
         <v>328</v>
       </c>
       <c r="C31" s="10"/>
@@ -3723,13 +3729,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="42.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>265</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3738,8 +3744,8 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="25" t="s">
         <v>266</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3747,204 +3753,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="25" t="s">
         <v>268</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="25" t="s">
         <v>269</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="25" t="s">
         <v>270</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="25" t="s">
         <v>271</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="25" t="s">
         <v>272</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="25" t="s">
         <v>273</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="25" t="s">
         <v>274</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="25" t="s">
         <v>275</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="25" t="s">
         <v>276</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="25" t="s">
         <v>277</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="25" t="s">
         <v>278</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="25" t="s">
         <v>279</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="25" t="s">
         <v>280</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="25" t="s">
         <v>281</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="25" t="s">
         <v>282</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="25" t="s">
         <v>283</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="25" t="s">
         <v>284</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="25" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="25" t="s">
         <v>286</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="25" t="s">
         <v>287</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="25" t="s">
         <v>288</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="25" t="s">
         <v>289</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="25" t="s">
         <v>290</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="25" t="s">
         <v>291</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="25" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="26" t="s">
         <v>293</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="25" t="s">
         <v>294</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="25" t="s">
         <v>295</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="10"/>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="25" t="s">
         <v>296</v>
       </c>
       <c r="C31" s="7"/>
@@ -3969,13 +3975,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="21.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="44.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3984,7 +3990,7 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="4" t="s">
         <v>234</v>
       </c>
@@ -3993,203 +3999,203 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>236</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>237</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>241</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>244</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>247</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>249</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="24" t="s">
         <v>251</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>252</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>253</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>256</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>257</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4" t="s">
         <v>259</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4" t="s">
         <v>260</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="4" t="s">
         <v>261</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4" t="s">
         <v>264</v>
       </c>
@@ -4226,7 +4232,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4235,7 +4241,7 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="4" t="s">
         <v>202</v>
       </c>
@@ -4244,203 +4250,203 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4" t="s">
         <v>231</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4" t="s">
         <v>232</v>
       </c>
@@ -4466,28 +4472,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="22.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="48.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="10" t="s">
         <v>169</v>
       </c>
@@ -4499,293 +4505,293 @@
       <c r="F2" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="18"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="19"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="19"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="18"/>
+      <c r="A19" s="20"/>
       <c r="B19" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="19"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="19"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="19"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="18"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="19"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="18"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="19"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -4793,7 +4799,7 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -4801,7 +4807,7 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="21"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -4826,8 +4832,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="35.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="45.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -5094,10 +5100,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="51.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="16.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -5332,11 +5338,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="13"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="17" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5406,8 +5412,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="46.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -5676,12 +5682,12 @@
   <cols>
     <col min="1" max="1" style="8" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="43.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="43.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="26" t="s">
-        <v>619</v>
+      <c r="A1" s="28" t="s">
+        <v>618</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -5689,225 +5695,225 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="14" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="24" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="22" t="s">
+      <c r="C3" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22" t="s">
+      <c r="C8" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22" t="s">
+      <c r="C10" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22" t="s">
+      <c r="C11" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="24" t="s">
         <v>630</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="22" t="s">
+      <c r="C12" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22" t="s">
+      <c r="C13" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22" t="s">
+      <c r="C14" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24" t="s">
         <v>633</v>
       </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="24" t="s">
         <v>634</v>
       </c>
-      <c r="C15" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22" t="s">
+      <c r="C16" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24" t="s">
         <v>635</v>
       </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22" t="s">
+      <c r="C17" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22" t="s">
+      <c r="C18" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="24" t="s">
         <v>637</v>
       </c>
-      <c r="C18" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22" t="s">
+      <c r="C19" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="24" t="s">
         <v>638</v>
       </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22" t="s">
+      <c r="C20" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="C20" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22" t="s">
+      <c r="C21" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="22" t="s">
+      <c r="C22" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="C22" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="22" t="s">
+      <c r="C23" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="22" t="s">
+      <c r="C24" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="24" t="s">
         <v>643</v>
       </c>
-      <c r="C24" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="22" t="s">
+      <c r="C25" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="22" t="s">
+      <c r="C26" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="C26" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="22" t="s">
+      <c r="C27" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="22" t="s">
+      <c r="C28" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="24" t="s">
         <v>647</v>
       </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22" t="s">
+      <c r="C30" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="24" t="s">
         <v>649</v>
       </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22" t="s">
-        <v>650</v>
-      </c>
       <c r="C31" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="10"/>
     </row>
   </sheetData>
@@ -5930,8 +5936,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="41.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -6435,18 +6441,18 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="48.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="48.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>585</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -6456,264 +6462,262 @@
       <c r="D1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>586</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="D2" s="14" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27" t="s">
         <v>588</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25" t="s">
-        <v>589</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25" t="s">
-        <v>590</v>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
+        <v>589</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="s">
-        <v>591</v>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
+        <v>590</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
-        <v>592</v>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
+        <v>591</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
-        <v>593</v>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>592</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25" t="s">
-        <v>594</v>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
+        <v>593</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25" t="s">
-        <v>595</v>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
+        <v>594</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25" t="s">
-        <v>596</v>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>595</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25" t="s">
-        <v>597</v>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
+        <v>596</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25" t="s">
-        <v>598</v>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
+        <v>597</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25" t="s">
-        <v>599</v>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
+        <v>598</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
-        <v>600</v>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
+        <v>599</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
-        <v>601</v>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>600</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
-        <v>602</v>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
+        <v>601</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25" t="s">
-        <v>603</v>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
+        <v>602</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
-        <v>604</v>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>603</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
-        <v>605</v>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>604</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25" t="s">
-        <v>606</v>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
+        <v>605</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25" t="s">
-        <v>607</v>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>606</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25" t="s">
-        <v>608</v>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
+        <v>607</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25" t="s">
-        <v>609</v>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>608</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25" t="s">
-        <v>610</v>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
+        <v>609</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25" t="s">
-        <v>611</v>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27" t="s">
+        <v>610</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25" t="s">
-        <v>612</v>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
+        <v>611</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25" t="s">
-        <v>613</v>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
+        <v>612</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25" t="s">
-        <v>614</v>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>613</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25" t="s">
-        <v>615</v>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27" t="s">
+        <v>614</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25" t="s">
-        <v>616</v>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
+        <v>615</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25" t="s">
-        <v>617</v>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
+        <v>616</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="10"/>
       <c r="D32" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="10"/>
       <c r="D33" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -6739,14 +6743,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="50.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>552</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -6756,8 +6760,8 @@
       <c r="D1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>553</v>
       </c>
       <c r="C2" s="10"/>
@@ -6766,246 +6770,246 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27" t="s">
         <v>555</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
         <v>556</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
         <v>557</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>558</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
         <v>559</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>560</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
         <v>561</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>562</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
         <v>563</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
         <v>564</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
         <v>565</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>566</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>567</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>568</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
         <v>569</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>570</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>571</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
         <v>572</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
         <v>573</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
         <v>574</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
         <v>575</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
         <v>576</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27" t="s">
         <v>577</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
         <v>578</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
         <v>579</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
         <v>580</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27" t="s">
         <v>581</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
         <v>582</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
         <v>583</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="10"/>
       <c r="D32" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="10"/>
       <c r="D33" s="13"/>
     </row>
@@ -7050,10 +7054,10 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>521</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -7061,204 +7065,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="14.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="24" t="s">
         <v>523</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="14.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="24" t="s">
         <v>524</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="14.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="24" t="s">
         <v>525</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="14.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="24" t="s">
         <v>526</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="14.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="24" t="s">
         <v>527</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="14.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="24" t="s">
         <v>528</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="14.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="24" t="s">
         <v>529</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="14.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="24" t="s">
         <v>530</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="14.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="24" t="s">
         <v>531</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="14.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="24" t="s">
         <v>532</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="14.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="24" t="s">
         <v>533</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="14.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="24" t="s">
         <v>534</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="14.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="24" t="s">
         <v>535</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="14.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="24" t="s">
         <v>536</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="14.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="24" t="s">
         <v>537</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="14.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="24" t="s">
         <v>538</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="14.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="24" t="s">
         <v>539</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="14.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="24" t="s">
         <v>540</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="13.5">
-      <c r="A21" s="29"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="24" t="s">
         <v>541</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="14.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="24" t="s">
         <v>542</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="24" t="s">
         <v>543</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="24" t="s">
         <v>544</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="24" t="s">
         <v>545</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="24" t="s">
         <v>546</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="24" t="s">
         <v>547</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="24" t="s">
         <v>548</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="24" t="s">
         <v>549</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="24" t="s">
         <v>550</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="14.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="24" t="s">
         <v>551</v>
       </c>
       <c r="C31" s="13"/>
@@ -7279,27 +7283,27 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="33.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="47.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32" t="s">
         <v>489</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -7307,204 +7311,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32" t="s">
         <v>491</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="32" t="s">
         <v>492</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="32" t="s">
         <v>493</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32" t="s">
         <v>494</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="32" t="s">
         <v>495</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32" t="s">
         <v>496</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32" t="s">
         <v>497</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32" t="s">
         <v>498</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32" t="s">
         <v>499</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32" t="s">
         <v>500</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32" t="s">
         <v>501</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32" t="s">
         <v>502</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32" t="s">
         <v>503</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32" t="s">
         <v>504</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30" t="s">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32" t="s">
         <v>505</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
         <v>506</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32" t="s">
         <v>507</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32" t="s">
         <v>508</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32" t="s">
         <v>509</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32" t="s">
         <v>510</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32" t="s">
         <v>511</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
         <v>512</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32" t="s">
         <v>513</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
         <v>514</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30" t="s">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32" t="s">
         <v>516</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32" t="s">
         <v>517</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="32" t="s">
         <v>518</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="32" t="s">
         <v>519</v>
       </c>
       <c r="C31" s="13"/>
@@ -7537,12 +7541,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="8" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="43.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="43.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>425</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -7551,7 +7555,7 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="25"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="10" t="s">
         <v>458</v>
       </c>
@@ -7560,203 +7564,203 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="10" t="s">
         <v>460</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="10" t="s">
         <v>461</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="10" t="s">
         <v>462</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="10" t="s">
         <v>463</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="10" t="s">
         <v>464</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="10" t="s">
         <v>465</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="10" t="s">
         <v>466</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="10" t="s">
         <v>467</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="10" t="s">
         <v>468</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="10" t="s">
         <v>469</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="10" t="s">
         <v>470</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="10" t="s">
         <v>471</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="10" t="s">
         <v>472</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="10" t="s">
         <v>473</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="10" t="s">
         <v>474</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="10" t="s">
         <v>475</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="10" t="s">
         <v>476</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="10" t="s">
         <v>477</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="10" t="s">
         <v>478</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="10" t="s">
         <v>479</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="10" t="s">
         <v>480</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="10" t="s">
         <v>481</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="10" t="s">
         <v>482</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="10" t="s">
         <v>483</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="10" t="s">
         <v>484</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="10" t="s">
         <v>485</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="25"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="10" t="s">
         <v>486</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="25"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="10" t="s">
         <v>487</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
     </row>
@@ -7780,13 +7784,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="47.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="15" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="47.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>425</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -7795,8 +7799,8 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27" t="s">
         <v>426</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -7804,204 +7808,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27" t="s">
         <v>428</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
         <v>429</v>
       </c>
       <c r="C4" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
         <v>430</v>
       </c>
       <c r="C5" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>431</v>
       </c>
       <c r="C6" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
         <v>432</v>
       </c>
       <c r="C7" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>433</v>
       </c>
       <c r="C8" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
         <v>434</v>
       </c>
       <c r="C9" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>435</v>
       </c>
       <c r="C10" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
         <v>436</v>
       </c>
       <c r="C11" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
         <v>437</v>
       </c>
       <c r="C12" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
         <v>438</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>439</v>
       </c>
       <c r="C14" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>440</v>
       </c>
       <c r="C15" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>441</v>
       </c>
       <c r="C16" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
         <v>442</v>
       </c>
       <c r="C17" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>443</v>
       </c>
       <c r="C18" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>444</v>
       </c>
       <c r="C19" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
         <v>445</v>
       </c>
       <c r="C20" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
         <v>446</v>
       </c>
       <c r="C21" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
         <v>447</v>
       </c>
       <c r="C22" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
         <v>448</v>
       </c>
       <c r="C23" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
         <v>449</v>
       </c>
       <c r="C24" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27" t="s">
         <v>450</v>
       </c>
       <c r="C25" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
         <v>451</v>
       </c>
       <c r="C26" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
         <v>452</v>
       </c>
       <c r="C27" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
         <v>453</v>
       </c>
       <c r="C28" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27" t="s">
         <v>454</v>
       </c>
       <c r="C29" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
         <v>455</v>
       </c>
       <c r="C30" s="13"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
         <v>456</v>
       </c>
       <c r="C31" s="13"/>
@@ -8039,7 +8043,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -8048,8 +8052,8 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="25" t="s">
         <v>394</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -8057,204 +8061,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="25" t="s">
         <v>396</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="25" t="s">
         <v>397</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="23" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="25" t="s">
         <v>398</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="25" t="s">
         <v>399</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="25" t="s">
         <v>400</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="25" t="s">
         <v>401</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="25" t="s">
         <v>402</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="25" t="s">
         <v>403</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="25" t="s">
         <v>404</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="25" t="s">
         <v>405</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="25" t="s">
         <v>406</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="25" t="s">
         <v>407</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="25" t="s">
         <v>408</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="25" t="s">
         <v>409</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="25" t="s">
         <v>410</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="25" t="s">
         <v>411</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="25" t="s">
         <v>412</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="25" t="s">
         <v>413</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="25" t="s">
         <v>414</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="25" t="s">
         <v>415</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="25" t="s">
         <v>416</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="25" t="s">
         <v>417</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="25" t="s">
         <v>418</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="25" t="s">
         <v>419</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="26" t="s">
         <v>420</v>
       </c>
       <c r="C27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="23" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="25" t="s">
         <v>421</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="23" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="25" t="s">
         <v>422</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="25" t="s">
         <v>423</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="25" t="s">
         <v>424</v>
       </c>
       <c r="C31" s="7"/>

--- a/犊牛数据上传地址 .xlsx
+++ b/犊牛数据上传地址 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="D1-9389-19-S"/>
@@ -16,7 +16,7 @@
     <sheet r:id="rId7" sheetId="7" name="D3-9348-19-S"/>
     <sheet r:id="rId8" sheetId="8" name="D3-9348-23-S"/>
     <sheet r:id="rId9" sheetId="9" name="D4-9351-19-S"/>
-    <sheet r:id="rId10" sheetId="10" name="D4-9351-20"/>
+    <sheet r:id="rId10" sheetId="10" name="D4-9351-20-S"/>
     <sheet r:id="rId11" sheetId="11" name="D4-9351-21"/>
     <sheet r:id="rId12" sheetId="12" name="D4-9351-22"/>
     <sheet r:id="rId13" sheetId="13" name="D4-9351-23-S"/>
@@ -3219,7 +3219,7 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7780,7 +7780,7 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/犊牛数据上传地址 .xlsx
+++ b/犊牛数据上传地址 .xlsx
@@ -17,7 +17,7 @@
     <sheet r:id="rId8" sheetId="8" name="D3-9348-23-S"/>
     <sheet r:id="rId9" sheetId="9" name="D4-9351-19-S"/>
     <sheet r:id="rId10" sheetId="10" name="D4-9351-20-S"/>
-    <sheet r:id="rId11" sheetId="11" name="D4-9351-21"/>
+    <sheet r:id="rId11" sheetId="11" name="D4-9351-21-S"/>
     <sheet r:id="rId12" sheetId="12" name="D4-9351-22"/>
     <sheet r:id="rId13" sheetId="13" name="D4-9351-23-S"/>
     <sheet r:id="rId14" sheetId="14" name="D5-9347-19-S"/>
@@ -2160,7 +2160,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2179,12 +2179,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2195,6 +2189,12 @@
       <sz val="11"/>
       <color rgb="FFff0000"/>
       <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -2318,7 +2318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2329,16 +2329,16 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2353,43 +2353,40 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
@@ -2730,7 +2727,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>650</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2739,216 +2736,216 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>652</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="23" t="s">
         <v>654</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23" t="s">
         <v>656</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23" t="s">
         <v>659</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23" t="s">
         <v>660</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="23" t="s">
         <v>662</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="23" t="s">
         <v>663</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="23" t="s">
         <v>664</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="23" t="s">
         <v>665</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="23" t="s">
         <v>666</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="23" t="s">
         <v>667</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="23" t="s">
         <v>668</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="23" t="s">
         <v>670</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="23" t="s">
         <v>672</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="23" t="s">
         <v>673</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="23" t="s">
         <v>674</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="23" t="s">
         <v>675</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="23" t="s">
         <v>676</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="23" t="s">
         <v>677</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="23" t="s">
         <v>678</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="23" t="s">
         <v>679</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="23" t="s">
         <v>680</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="23" t="s">
         <v>681</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2970,13 +2967,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="34.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="45.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="45.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2985,216 +2982,216 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>363</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10" t="s">
@@ -3223,13 +3220,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="45.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="45.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24.75">
+      <c r="A1" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3237,217 +3234,217 @@
       </c>
       <c r="C1" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="27" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
+      <c r="A2" s="19"/>
+      <c r="B2" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="27" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
+      <c r="A3" s="19"/>
+      <c r="B3" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="27" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
+      <c r="A4" s="19"/>
+      <c r="B4" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="27" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
+      <c r="A5" s="19"/>
+      <c r="B5" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="27" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
+      <c r="A6" s="19"/>
+      <c r="B6" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="27" t="s">
+      <c r="C6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+      <c r="A7" s="19"/>
+      <c r="B7" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="27" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
+      <c r="A8" s="19"/>
+      <c r="B8" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="27" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
+      <c r="A9" s="19"/>
+      <c r="B9" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="C9" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="27" t="s">
+      <c r="C9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
+      <c r="A10" s="19"/>
+      <c r="B10" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="27" t="s">
+      <c r="C10" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+      <c r="A11" s="19"/>
+      <c r="B11" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="27" t="s">
+      <c r="C11" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
+      <c r="A12" s="19"/>
+      <c r="B12" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="27" t="s">
+      <c r="C12" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
+      <c r="A13" s="19"/>
+      <c r="B13" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="27" t="s">
+      <c r="C13" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
+      <c r="A14" s="19"/>
+      <c r="B14" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="27" t="s">
+      <c r="C14" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21.75">
+      <c r="A15" s="19"/>
+      <c r="B15" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10" t="s">
@@ -3476,13 +3473,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="46.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="46.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3491,213 +3488,213 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="26" t="s">
         <v>328</v>
       </c>
       <c r="C31" s="10"/>
@@ -3729,13 +3726,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="42.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>265</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3744,8 +3741,8 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="24" t="s">
         <v>266</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3753,204 +3750,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="24" t="s">
         <v>269</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="24" t="s">
         <v>270</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="24" t="s">
         <v>271</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="24" t="s">
         <v>272</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="24" t="s">
         <v>273</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="24" t="s">
         <v>274</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="24" t="s">
         <v>275</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="24" t="s">
         <v>276</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="24" t="s">
         <v>277</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="24" t="s">
         <v>278</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="24" t="s">
         <v>279</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="24" t="s">
         <v>280</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="24" t="s">
         <v>281</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="24" t="s">
         <v>282</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="24" t="s">
         <v>283</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="24" t="s">
         <v>284</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="24" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="24" t="s">
         <v>286</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="24" t="s">
         <v>287</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="24" t="s">
         <v>288</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="24" t="s">
         <v>289</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="24" t="s">
         <v>290</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="24" t="s">
         <v>291</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="24" t="s">
         <v>292</v>
       </c>
       <c r="C27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="25" t="s">
         <v>293</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="24" t="s">
         <v>294</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="24" t="s">
         <v>295</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="10"/>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>296</v>
       </c>
       <c r="C31" s="7"/>
@@ -3975,13 +3972,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="21.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="44.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3990,221 +3987,221 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4232,7 +4229,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -4241,7 +4238,7 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="4" t="s">
         <v>202</v>
       </c>
@@ -4250,203 +4247,203 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>204</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>205</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>206</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>208</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>210</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>211</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>212</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>214</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>216</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>218</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="4" t="s">
         <v>221</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="4" t="s">
         <v>224</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="4" t="s">
         <v>227</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="4" t="s">
         <v>230</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="4" t="s">
         <v>231</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4" t="s">
         <v>232</v>
       </c>
@@ -4472,32 +4469,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="22.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="48.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>170</v>
       </c>
       <c r="D2" s="10"/>
@@ -4505,293 +4502,293 @@
       <c r="F2" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="21"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="21"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="21"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="21"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C31" s="21"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -4799,7 +4796,7 @@
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="19"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -4807,7 +4804,7 @@
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="23"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -4832,8 +4829,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="35.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="45.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -4848,237 +4845,237 @@
       <c r="A2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>137</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10" t="s">
         <v>167</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5100,10 +5097,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="34.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="34.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="51.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="16.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -5118,258 +5115,258 @@
       <c r="A2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="17" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="13"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
@@ -5377,19 +5374,19 @@
         <v>134</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="10"/>
     </row>
   </sheetData>
@@ -5412,8 +5409,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="46.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -5428,237 +5425,237 @@
       <c r="A2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5682,11 +5679,11 @@
   <cols>
     <col min="1" max="1" style="8" width="20.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="9" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="43.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="43.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>618</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -5695,225 +5692,225 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>620</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="23" t="s">
         <v>622</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="23" t="s">
         <v>632</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="23" t="s">
         <v>634</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="23" t="s">
         <v>643</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="23" t="s">
         <v>647</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="23" t="s">
         <v>648</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="23" t="s">
         <v>649</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="10"/>
     </row>
   </sheetData>
@@ -5936,8 +5933,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="24.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="33.57642857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="41.14785714285715" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -5952,227 +5949,227 @@
       <c r="A2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6445,14 +6442,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="48.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="48.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="24">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>585</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -6462,258 +6459,258 @@
       <c r="D1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>586</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>587</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21.75">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>588</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
         <v>589</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21.75">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>590</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21.75">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>591</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
         <v>592</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21.75">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
         <v>593</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21.75">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>594</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
         <v>595</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>596</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
         <v>597</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21.75">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
         <v>598</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21.75">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
         <v>599</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>600</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26" t="s">
         <v>601</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
         <v>602</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
         <v>603</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
         <v>604</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26" t="s">
         <v>605</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
         <v>606</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>607</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
         <v>608</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26" t="s">
         <v>609</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
         <v>610</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26" t="s">
         <v>611</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26" t="s">
         <v>612</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26" t="s">
         <v>613</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26" t="s">
         <v>614</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
         <v>615</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
         <v>616</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="10" t="s">
@@ -6743,14 +6740,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="37.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="50.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="37.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="50.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>552</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -6760,258 +6757,258 @@
       <c r="D1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>553</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>554</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>555</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="13"/>
+      <c r="D3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
         <v>556</v>
       </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
+      <c r="D4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>557</v>
       </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>558</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
         <v>559</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
+      <c r="D7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
         <v>560</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>561</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
         <v>562</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
+      <c r="D10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>563</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
         <v>564</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
         <v>565</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
         <v>566</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>567</v>
       </c>
       <c r="C15" s="10"/>
-      <c r="D15" s="13"/>
+      <c r="D15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26" t="s">
         <v>568</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
         <v>569</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="13"/>
+      <c r="D17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
         <v>570</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
         <v>571</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26" t="s">
         <v>572</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
         <v>573</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>574</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
         <v>575</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26" t="s">
         <v>576</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="13"/>
+      <c r="D24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
         <v>577</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="13"/>
+      <c r="D25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26" t="s">
         <v>578</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26" t="s">
         <v>579</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="13"/>
+      <c r="D27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26" t="s">
         <v>580</v>
       </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26" t="s">
         <v>581</v>
       </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="13"/>
+      <c r="D29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
         <v>582</v>
       </c>
       <c r="C30" s="10"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
         <v>583</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="10"/>
-      <c r="D32" s="13"/>
+      <c r="D32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="13"/>
+      <c r="D33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="10" t="s">
@@ -7054,218 +7051,218 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>522</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="14.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="24" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="14.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="14.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="14.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="14.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="14.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="14.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="14.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="14.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="24" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="14.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="14.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="14.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="14.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="14.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="14.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="14.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="24" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="14.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="14.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="24" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="13.5">
-      <c r="A21" s="31"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="14.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="24" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="24" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="24" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="24" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="14.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7287,238 +7284,238 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="33.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="47.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>490</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="30"/>
+      <c r="B13" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32" t="s">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="32" t="s">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31" t="s">
         <v>504</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31" t="s">
         <v>505</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31" t="s">
         <v>506</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>507</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32" t="s">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31" t="s">
         <v>508</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31" t="s">
         <v>510</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31" t="s">
         <v>511</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32" t="s">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31" t="s">
         <v>513</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31" t="s">
         <v>514</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32" t="s">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31" t="s">
         <v>515</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31" t="s">
         <v>516</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31" t="s">
         <v>518</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31" t="s">
         <v>519</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10" t="s">
         <v>520</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7541,12 +7538,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="8" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="43.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="43.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>425</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -7555,212 +7552,212 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="27"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>459</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="27"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="27"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="27"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
     </row>
@@ -7784,13 +7781,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="15" width="47.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="47.57642857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>425</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -7799,216 +7796,216 @@
       <c r="C1" s="10"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>427</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26" t="s">
         <v>428</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="13"/>
+      <c r="C4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
         <v>435</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>436</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
         <v>438</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>440</v>
       </c>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26" t="s">
         <v>441</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
         <v>444</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26" t="s">
         <v>445</v>
       </c>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
         <v>446</v>
       </c>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
         <v>448</v>
       </c>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26" t="s">
         <v>449</v>
       </c>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26" t="s">
         <v>454</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="10" t="s">
@@ -8043,7 +8040,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -8052,8 +8049,8 @@
       <c r="C1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="24" t="s">
         <v>394</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -8061,204 +8058,204 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="24" t="s">
         <v>396</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="24" t="s">
         <v>397</v>
       </c>
       <c r="C4" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="24" t="s">
         <v>398</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="24" t="s">
         <v>399</v>
       </c>
       <c r="C6" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="24" t="s">
         <v>400</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="24" t="s">
         <v>401</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="24" t="s">
         <v>402</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="24" t="s">
         <v>403</v>
       </c>
       <c r="C10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="24" t="s">
         <v>404</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="24" t="s">
         <v>405</v>
       </c>
       <c r="C12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="24" t="s">
         <v>406</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="24" t="s">
         <v>407</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="24" t="s">
         <v>408</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="24" t="s">
         <v>409</v>
       </c>
       <c r="C16" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="25" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="24" t="s">
         <v>410</v>
       </c>
       <c r="C17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="24" t="s">
         <v>411</v>
       </c>
       <c r="C18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="24" t="s">
         <v>412</v>
       </c>
       <c r="C19" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="24" t="s">
         <v>413</v>
       </c>
       <c r="C20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="24" t="s">
         <v>414</v>
       </c>
       <c r="C21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="24" t="s">
         <v>415</v>
       </c>
       <c r="C22" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="24" t="s">
         <v>416</v>
       </c>
       <c r="C23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="24" t="s">
         <v>417</v>
       </c>
       <c r="C24" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="24" t="s">
         <v>418</v>
       </c>
       <c r="C25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="24" t="s">
         <v>419</v>
       </c>
       <c r="C26" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="25" t="s">
         <v>420</v>
       </c>
       <c r="C27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="24" t="s">
         <v>421</v>
       </c>
       <c r="C28" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="25" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="24" t="s">
         <v>422</v>
       </c>
       <c r="C29" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="24" t="s">
         <v>423</v>
       </c>
       <c r="C30" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="24" t="s">
         <v>424</v>
       </c>
       <c r="C31" s="7"/>
